--- a/ExampleManifest.xlsx
+++ b/ExampleManifest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reamartine/Dropbox/Lykke-Andersen lab/miseq/19-09-21/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/Documents/Code/fastq_decomposer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5869DFAD-DF7C-A04D-9838-790E50B0914C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D143C8F5-C993-E045-8A74-42633E6A79FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="3960" windowWidth="25640" windowHeight="14040" xr2:uid="{7703D725-79AB-4F41-B0FF-DD1B906C223D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>sampleID</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>712mtrdox</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,6 +546,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
